--- a/PlayerClusters - 2024 FFBall.xlsx
+++ b/PlayerClusters - 2024 FFBall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexig\Desktop\FFBall_confidence_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452E18A-03CD-498E-B6FE-431F5C602C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A65BB5-1CC7-429B-8054-C4B53F481E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7F2F6C6-581E-41FB-987A-FD9451A71876}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6482" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6482" uniqueCount="1930">
   <si>
     <t xml:space="preserve">Lamar Jackson </t>
   </si>
@@ -5816,6 +5816,9 @@
   </si>
   <si>
     <t>10.6</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -6220,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3588D9F3-3563-455F-AB09-F1CAE9BB0A68}">
   <dimension ref="A1:Z701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A686" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E701"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6237,7 +6240,7 @@
         <v>485</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>546</v>
+        <v>1929</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>486</v>
